--- a/biology/Médecine/Bloc_de_branche/Bloc_de_branche.xlsx
+++ b/biology/Médecine/Bloc_de_branche/Bloc_de_branche.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un bloc de branche est un trouble de la conduction cardiaque dont le blocage est situé sur une des branches du faisceau de His au niveau des ventricules cardiaques.
 </t>
@@ -511,7 +523,9 @@
           <t>Physiopathologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Chez les individus sains, l'activité électrique du cœur est initiée au niveau du nœud sinusal (localisé à la jonction entre la veine cave supérieure et l'oreillette droite). L'onde de dépolarisation se propage alors vers le nœud atrioventriculaire (situé en partie basse de l'oreillette droite), puis vers les ventricules cardiaques par l'intermédiaire du faisceau de His.
 Le faisceau de His se divise en deux branches, une pour chaque ventricule.
@@ -548,7 +562,9 @@
           <t>Clinique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le sujet est généralement asymptomatique et le diagnostic est fait lors de la lecture d'un électrocardiogramme.
 Sinon, les signes sont ceux de la cardiopathie en cause.
@@ -580,11 +596,48 @@
           <t>Électrocardiogramme</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Il va montrer un élargissement des complexes QRS (à 0,12 seconde ou plus) lorsque le bloc est complet et des complexes QRS fins lorsqu'il est incomplet.
-Bloc de branche droit
-Sur l'électrocardiogramme, un aspect rSR' ou RR' caractéristique est visible en dérivation V1 et V2. L'onde T est inversée dans la dérivation V1.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Bloc_de_branche</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bloc_de_branche</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Électrocardiogramme</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Bloc de branche droit</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sur l'électrocardiogramme, un aspect rSR' ou RR' caractéristique est visible en dérivation V1 et V2. L'onde T est inversée dans la dérivation V1.
 En dérivation V6, on peut voir une onde S large et profonde.
 Lorsqu'il existe un bloc de branche droit, le ventricule droit n'est pas directement activé par les impulsions électriques progressant au travers la branche droite du faisceau de His.
 Le ventricule gauche, quant à lui, est normalement activé par la branche gauche. Ces impulsions électriques progressent alors au travers du myocarde, du ventricule gauche vers le ventricule droit, activant finalement celui-ci.
@@ -594,8 +647,43 @@
 			BBD avec 1 bloc AV de 1er degré
 			BBD et tachycardie
 			BBD
-Bloc de branche gauche
-On a un allongement du temps d'activation des ventricules car le ventricule Gauche est dépolarisé en retard. Donc on a un allongement du QRS supérieur à 12cs. Il y a aussi allongement du temps de passage de l'influx électrique de l'endocarde vers l'épicarde du Ventricule Gauche enregistré en V6 donc un allongement de la déflexion intrinsécoïde en V6, cette déflexion étant nulle ou très courte en V1.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Bloc_de_branche</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bloc_de_branche</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Électrocardiogramme</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Bloc de branche gauche</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On a un allongement du temps d'activation des ventricules car le ventricule Gauche est dépolarisé en retard. Donc on a un allongement du QRS supérieur à 12cs. Il y a aussi allongement du temps de passage de l'influx électrique de l'endocarde vers l'épicarde du Ventricule Gauche enregistré en V6 donc un allongement de la déflexion intrinsécoïde en V6, cette déflexion étant nulle ou très courte en V1.
 Le premier vecteur, vecteur septal, est complètement changé car la dépolarisation va de la droite vers la gauche et non l'inverse. On a alors une fuite de toute activité en V1 donc une déflexion négative (onde Q) et une déflexion positive en V6.
 Le deuxième vecteur, vecteur pariétal, va de la droite vers la gauche.
 Le troisième vecteur, vecteur basal, voit sa déflexion augmentée en V6 avec une onde R qui est prolongée et un "QS" en V1.
@@ -606,31 +694,33 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Bloc_de_branche</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Bloc_de_branche</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Échographie trans-thoracique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">En échographie cardiaque trans-thoracique, certains patients porteurs d'un bloc de branche gauche complet (avec durée du complexe QRS supérieur a 120 ms) présentent un asynchronisme cardiaque.
 En effet, la présence d'un bloc de branche gauche modifie la contraction du ventricule gauche, la contraction du septum inter-ventriculaire étant alors suivie d'une contraction tardive de la paroi latérale du ventricule gauche (en l'absence de bloc de branche, la contraction de la paroi latérale est contemporaine de la contraction du septum inter-ventriculaire).
